--- a/Ear Surgery Instruments/Budget and Materials 23-Oct-2017.xlsx
+++ b/Ear Surgery Instruments/Budget and Materials 23-Oct-2017.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Pusher Device" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="163">
   <si>
     <t>Description</t>
   </si>
@@ -498,6 +499,30 @@
   </si>
   <si>
     <t>set screw clamps the cable + tube into place in the wheel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nitinol Wristed Tip Laser Cutting </t>
+  </si>
+  <si>
+    <t>135deg CCM V-1 Wrist 07-Dec-2017.PDF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filename: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">location: </t>
+  </si>
+  <si>
+    <t>/Users/arushriswarup/Documents/GitHub/Grad-School/Ear Surgery Instruments/Wristed Cuts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">models: </t>
+  </si>
+  <si>
+    <t>135 deg Gear Tooth V-2 Wrist right.sldprt</t>
+  </si>
+  <si>
+    <t>135 deg Gear Tooth V-2 Wrist left.sldprt</t>
   </si>
 </sst>
 </file>
@@ -1522,9 +1547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1578,7 +1603,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="96" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="64" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
@@ -1888,4 +1913,53 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>